--- a/Classification/Labeled_Profiles_Marius.xlsx
+++ b/Classification/Labeled_Profiles_Marius.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\Documents\GitHub\CERProject23MC\Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC276B6-C59E-4C43-964F-D6E9B6218273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9323746A-B6B9-4382-AE09-400E22381F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12961,10 +12961,10 @@
     <t>Aufsichtsrätin, Staatssekretärin a.D,  2006-2016 MdL, @Frauenimfokus Initiatorin</t>
   </si>
   <si>
-    <t>Label Marius</t>
-  </si>
-  <si>
-    <t>Label Cuong</t>
+    <t>LabelMarius</t>
+  </si>
+  <si>
+    <t>LabelCuong</t>
   </si>
 </sst>
 </file>
@@ -13063,8 +13063,8 @@
     <tableColumn id="3" xr3:uid="{53E9710E-7F24-4144-8914-04EA8C482A7B}" uniqueName="3" name="profile" queryTableFieldId="3" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{A349AE38-AF83-4E25-9740-F9C2F279D185}" uniqueName="4" name="user_id" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{ED9CAD5F-70DD-405F-BC04-736288AA5315}" uniqueName="5" name="party" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{7FAEB153-178F-49F3-A088-43A046306C68}" uniqueName="6" name="Label Marius" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{A145EED0-C3E2-4DE3-ABA2-EA6208039A26}" uniqueName="7" name="Label Cuong" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{7FAEB153-178F-49F3-A088-43A046306C68}" uniqueName="6" name="LabelMarius" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A145EED0-C3E2-4DE3-ABA2-EA6208039A26}" uniqueName="7" name="LabelCuong" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13336,7 +13336,7 @@
   <dimension ref="A1:G2050"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
